--- a/Dev Notes/Pleiades Backlogs/Product Design/Pleiades Commerce Product Management.xlsx
+++ b/Dev Notes/Pleiades Backlogs/Product Design/Pleiades Commerce Product Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Development Backlog" sheetId="5" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
